--- a/rnascope/raw_data/Swirl_expected_expression_revisionMNT.xlsx
+++ b/rnascope/raw_data/Swirl_expected_expression_revisionMNT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattntran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DF6A5-1A86-8444-9B04-F2EA0CEB3A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646E688-38B7-A643-ABD5-7F7F71004E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3240" windowWidth="24960" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2120" windowWidth="24960" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Population</t>
   </si>
@@ -42,16 +42,13 @@
     <t>Channel_4_570_PVALB</t>
   </si>
   <si>
-    <t>Inhib_E</t>
-  </si>
-  <si>
-    <t>Inhib_B</t>
-  </si>
-  <si>
     <t>Inhib_C/D</t>
   </si>
   <si>
     <t>Inhib_A</t>
+  </si>
+  <si>
+    <t>Inhib_B/E</t>
   </si>
 </sst>
 </file>
@@ -471,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +502,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -514,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -523,7 +520,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -541,7 +538,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -556,24 +553,6 @@
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
